--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>can't stop thinking about earlier. you around?</t>
+          <t>I made something special and you're the only one I want to show it to</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -2346,7 +2346,7 @@
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
-          <t>hey hope you're good love, text me when you're back 💕</t>
+          <t>miss talking to you love, where'd you go? 💕</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -2363,7 +2363,7 @@
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>okay I guess you're busy. might delete this later, it was only for you</t>
+          <t>fine I'll just keep this to myself then 😏</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>you really need to see what I just did... trust me on this</t>
+          <t>I have something to show you but you're leaving me on read...</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>hey?</t>
+          <t>helloooo</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -38,9 +38,10 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -642,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>cum with me</t>
+          <t>I want us to finish together</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -659,7 +660,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>hold on</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -702,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>FUCK</t>
+          <t>god</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -736,7 +737,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>give me a sec</t>
+          <t>one second</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -753,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I can't hold back anymore</t>
+          <t>I'm done holding back</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -890,7 +891,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you watch it?</t>
+          <t>did you see it?</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -924,7 +925,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>give me a sec</t>
+          <t>one second</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -3881,7 +3882,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see this, trust me you want to wait</t>
+          <t>just hold on a little more, I want the last thing you see to be this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3899,12 +3900,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold it... wait until you see what I'm about to send, trust me it's worth it</t>
+          <t>wait for me... I have one more thing and I want you to see it before we finish</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -3917,12 +3918,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, I want us to finish together... open this first</t>
+          <t>stay with me love, I'm almost there too... watch this</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>SYNC variant. Send PPV.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3935,12 +3936,12 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm so close too, cum with me... but you need to see this first</t>
+          <t>I want us to finish together... open this and let go with me</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Final PPV.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -3953,7 +3954,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold it, not yet... I need you to last a little longer for me</t>
+          <t>please don't finish yet... I'm not ready for this to be over</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3971,12 +3972,12 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't cum yet... I'm not done with you</t>
+          <t>not yet love... I want this to last a little longer with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>EDGE. More PPVs left.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4031,17 +4032,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just made me do something... give me a sec</t>
+          <t>just a little longer for me love? the next one is special</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE variant.</t>
+          <t>DELAY variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4049,17 +4050,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on</t>
+          <t>please wait... what I'm about to send, I want you to really take it in</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+          <t>DELAY. Send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4067,17 +4068,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>woah I was not expecting that but... damn 🥵</t>
+          <t>I need you to see this before we both let go</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT variant.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4085,17 +4086,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>wow you don't waste time huh? that's actually really hot though ngl</t>
+          <t>okay... together, right now... open this</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>DURING RAPPORT.</t>
+          <t>SYNC. Send PPV.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4103,17 +4104,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh fuck... that is... damn. I need to show you something right now</t>
+          <t>don't rush... this is too good to end yet</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING variant.</t>
+          <t>EDGE variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4121,17 +4122,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>fuck okay that's... wow. you have no idea what that just did to me</t>
+          <t>slow down love... I want to feel every second of this with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>DURING SEXTING.</t>
+          <t>CONTROL.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4142,6 +4143,161 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="13" t="inlineStr">
+        <is>
+          <t>dpppv2</t>
+        </is>
+      </c>
+      <c r="B2" s="13" t="inlineStr">
+        <is>
+          <t>okay you just made me do something... give me a sec</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE variant.</t>
+        </is>
+      </c>
+      <c r="D2" s="13" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="inlineStr">
+        <is>
+          <t>dpppv1</t>
+        </is>
+      </c>
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>you can't just send me that and expect me not to do something about it, hold on</t>
+        </is>
+      </c>
+      <c r="C3" s="13" t="inlineStr">
+        <is>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
+        </is>
+      </c>
+      <c r="D3" s="13" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="inlineStr">
+        <is>
+          <t>dprapport2</t>
+        </is>
+      </c>
+      <c r="B4" s="13" t="inlineStr">
+        <is>
+          <t>woah I was not expecting that but... damn 🥵</t>
+        </is>
+      </c>
+      <c r="C4" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT variant.</t>
+        </is>
+      </c>
+      <c r="D4" s="13" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>dprapport1</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>wow you don't waste time huh? that's actually really hot though ngl</t>
+        </is>
+      </c>
+      <c r="C5" s="13" t="inlineStr">
+        <is>
+          <t>DURING RAPPORT.</t>
+        </is>
+      </c>
+      <c r="D5" s="13" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="inlineStr">
+        <is>
+          <t>dpsext2</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>oh fuck... that is... damn. I need to show you something right now</t>
+        </is>
+      </c>
+      <c r="C6" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING variant.</t>
+        </is>
+      </c>
+      <c r="D6" s="13" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="inlineStr">
+        <is>
+          <t>dpsext1</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>fuck okay that's... wow. you have no idea what that just did to me</t>
+        </is>
+      </c>
+      <c r="C7" s="13" t="inlineStr">
+        <is>
+          <t>DURING SEXTING.</t>
+        </is>
+      </c>
+      <c r="D7" s="13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>I want us to finish together</t>
+          <t>let go with me babe... I'm done holding back 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I wanna finish with you... I'm so close</t>
+          <t>I'm cumming... god I'm cumming so hard for you right now</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>don't cum yet</t>
+          <t>I'm right there babe... every nerve in my body is on fire and I need you to watch me 🥵</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>god</t>
+          <t>oh my god 😏</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>I've never gone this far for anyone... watch</t>
+          <t>you need to see this babe... I don't let anyone see me like this 🥵</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I'm done holding back</t>
+          <t>I'm so close to the edge and I need you to see what happens when I fall</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -767,7 +767,7 @@
       </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
-          <t>imagine having me right there in front of you doing whatever you want</t>
+          <t>my body is arching off the bed and my legs are trembling... I can't stop 🥵</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr"/>
@@ -780,7 +780,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>I need to cum so bad right now you have no idea</t>
+          <t>I'm rubbing my pussy and going deeper with every stroke babe... I can hear how wet I am</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>fuck</t>
+          <t>oh fuck 😏</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>look what you did to me</t>
+          <t>this is what you're making me do to myself babe... watch 🥵</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>what would you do to me if you were here right now</t>
+          <t>tell me what you want babe... I want to hear you say it while I'm touching myself like this</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
-          <t>I'm so wet right now and it's literally your fault</t>
+          <t>I keep imagining you here, feeling your skin against mine, your breath on my neck... god I need it 🥵</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr"/>
@@ -874,7 +874,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>fuck... talking to you does something to me I literally can't explain</t>
+          <t>I'm touching myself right now and I can't believe how wet I already am... you did this babe</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
-          <t>did you see it?</t>
+          <t>wow... okay that hit deeper than I expected 😏</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>you're not ready for this one</t>
+          <t>see what you're doing to me babe... I couldn't keep this from you 🥵</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -942,7 +942,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>wanna see what happens next? I'm in a mood right now</t>
+          <t>I want to show you what happens when I stop holding back... I think you can handle it 🥵</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr"/>
@@ -955,7 +955,7 @@
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
-          <t>knew you'd like that 😏</t>
+          <t>my hand is drifting lower and I can feel myself getting wet just from this conversation... you're dangerous babe</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>well?</t>
+          <t>mm you liked that? good... because I can already feel my body reacting to the way you're looking at me 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh my god 😏</t>
+          <t>oh my god I can't stop shaking... I'm right on the edge 😏</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>I'm so close to the edge and I need you to see what happens when I fall</t>
+          <t>I'm about to cum babe and I need you to see what happens to my body when I let go</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="B14" s="5" t="inlineStr">
         <is>
-          <t>oh fuck 😏</t>
+          <t>oh fuck I can't stop 😏</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
-          <t>mm you liked that? good... because I can already feel my body reacting to the way you're looking at me 😏</t>
+          <t>mm you liked that? good... because I can feel myself getting wet just from the way you're looking at me 😏</t>
         </is>
       </c>
       <c r="C25" s="6" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -643,7 +643,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>let go with me babe... I'm done holding back 🥵</t>
+          <t>watch me cum babe... this is what you do to me 🥵</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>I'm cumming... god I'm cumming so hard for you right now</t>
+          <t>I'm cumming... right now babe... fuck I can feel it dripping down my fingers and my whole body is pulsing</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr"/>
@@ -690,7 +690,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>I'm right there babe... every nerve in my body is on fire and I need you to watch me 🥵</t>
+          <t>I'm right there babe... my pussy is throbbing so hard and I need your eyes on me when I cum 🥵</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="B8" s="5" t="inlineStr">
         <is>
-          <t>oh my god I can't stop shaking... I'm right on the edge 😏</t>
+          <t>oh my god my pussy is clenching so hard and I'm right on the edge 😏</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -38,10 +38,9 @@
     <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
     <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol1" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol2" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1202,7 +1201,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay, I'm not going anywhere... let's just keep talking, I like this</t>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1220,7 +1219,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally just did this because of what YOU said to me, this wasn't random content love</t>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1238,7 +1237,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? nah I don't just show this to anyone... you gotta earn the good stuff</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1256,12 +1255,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? this one is way more intense</t>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still wants free → Step 2.</t>
+          <t>REMINDER. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1321,7 +1320,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all, I'm just enjoying talking to you honestly</t>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1339,7 +1338,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this because of you... specifically because of our convo, that took real effort and I did it for YOU</t>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1357,7 +1356,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? you really think the best things in life are free? not this one</t>
+          <t>the best things aren't free baby, especially not what I just did</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1375,7 +1374,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free one, this one is on a whole different level</t>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1440,12 +1439,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I like talking to you money or not... you do something to me</t>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT. GFE.</t>
+          <t>PROTECT.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1458,7 +1457,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can, even a tiny amount, I just need you to see what you made me do</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1476,12 +1475,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. $3-5. Still no → Step 3.</t>
+          <t>TEST $3-5. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1494,12 +1493,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay?</t>
+          <t>I hear you baby, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still engaged → Step 2.</t>
+          <t>EMPATHY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1559,7 +1558,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally fine, you being here is what matters to me</t>
+          <t>you being here talking to me is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1577,7 +1576,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I just can't keep this from you</t>
+          <t>just send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1595,7 +1594,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this</t>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1613,7 +1612,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine love, seriously don't worry about it</t>
+          <t>okay don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1678,7 +1677,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself... you need to see it</t>
+          <t>send me whatever you want, literally anything, I just can't keep this to myself, you need to see it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1696,7 +1695,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>look this isn't about money... I just need you to see what you're doing to me right now, I don't react like this to people</t>
+          <t>okay forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1714,7 +1713,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine I'm not trying to sell you anything, I just like talking to you</t>
+          <t>that's fine, I'm not trying to sell you anything, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1779,7 +1778,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see what you did to me</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1797,7 +1796,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... I just want to share this with you, what you're making me feel is real</t>
+          <t>forget the money part for a sec, I want to share this moment with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1815,7 +1814,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all love, I don't care about that I'm just enjoying this</t>
+          <t>no worries, I don't care about that rn, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1880,7 +1879,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon love, I'm in this mood and I don't know how long it's gonna last</t>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1898,12 +1897,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this</t>
+          <t>maybe try a different card? I really don't want you to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1916,12 +1915,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ugh that sucks, happens sometimes though try again it usually works the second time</t>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1981,7 +1980,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I change my mind, I don't keep stuff like this around forever</t>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1999,12 +1998,12 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card you can try? I really want you to see this</t>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. Still fails → Step 3.</t>
+          <t>ALTERNATIVE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -2017,12 +2016,12 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>aw that's annoying, it happens a lot just try one more time</t>
+          <t>that happens sometimes, try one more time for me</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>RETRY. Still fails → Step 2.</t>
+          <t>RETRY. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -2082,7 +2081,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay I'll chill... for now, no promises though haha</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2100,7 +2099,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I can't help it, there's something about you that's messing with my head right now</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2118,12 +2117,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making Colombian-Scottish girls lose their minds?</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>SUBTLE TENSION. → Step 3 later.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2136,12 +2135,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha okay I got a little carried away, you're just so easy to talk to</t>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2201,7 +2200,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me if it happens again later 😏</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2219,7 +2218,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to behave but you're making it really hard, there's something about you</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2237,7 +2236,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic but first... what's the craziest adventure you've ever been on?</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2255,12 +2254,12 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad I got ahead of myself, it's your fault for being so fun to talk to</t>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>RESPECT. Still no → Step 2.</t>
+          <t>RESPECT. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="12" t="inlineStr"/>
@@ -2462,7 +2461,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay wait no I remember now, so like I was saying...</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2480,7 +2479,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you totally distracted me, I was about to tell you something and now I forgot</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2498,12 +2497,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually funny</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2563,7 +2562,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay focus, where was I... oh yeah</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2581,7 +2580,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no stop you're distracting me from what I was gonna say</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2599,12 +2598,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol okay that's random but I like it</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>ACKNOWLEDGE. → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2664,7 +2663,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here, but you felt something in this convo right? because I did and that's real</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2682,7 +2681,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about me or my life. I'm an open book</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2700,12 +2699,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I look like a bot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still doubts → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2765,7 +2764,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's tons of bots on here but what we've been talking about felt real to me. didn't it feel real to you?</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2783,7 +2782,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me love, ask me something only a real person would know. go ahead</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2801,7 +2800,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm not real?? that's actually the funniest thing anyone's said to me today</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2866,12 +2865,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call love... you'll see</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2902,12 +2901,12 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it but not yet... I'm kind of private about that</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still asks → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2967,7 +2966,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do on here but what I have for you is way better than hearing my voice, trust me</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2985,7 +2984,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll blow your mind?</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3003,7 +3002,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm maybe but you gotta earn that first haha</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3086,12 +3085,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you're thinking of, you're gonna lose it... [price]</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Custom videos $100+/min. VCs $150+.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3104,7 +3103,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you want that? hmm I might have something... actually I definitely have something</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3187,12 +3186,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I actually did something just like that, [price] and it's worth every cent</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Custom videos $100+/min. VCs $150+.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3205,7 +3204,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>oh you have good taste... I think I have exactly what you need</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3270,7 +3269,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you need better than you do 😏</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3288,7 +3287,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>actually what I have might be even crazier and literally no one else has seen it yet</t>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3306,7 +3305,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but honestly I have something that'll make you forget you even asked</t>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3371,7 +3370,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me later</t>
+          <t>just trust me on this one, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3389,7 +3388,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something no one has ever seen and I think it's even better than what you asked for</t>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3407,7 +3406,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have that specific thing but I have something you're gonna like even more</t>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3680,7 +3679,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something insane planned for round 2</t>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3698,7 +3697,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet... don't you wanna watch me cum too?</t>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3716,7 +3715,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait already?? that's so hot</t>
+          <t>fuck that's so hot, you came because of me??</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3781,7 +3780,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to hold it because what I have planned for us is way crazier</t>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3799,7 +3798,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, you're gonna leave me like this?</t>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3817,7 +3816,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? fuck that's hot, because of me??</t>
+          <t>already?? damn that's hot</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3882,7 +3881,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>just hold on a little more, I want the last thing you see to be this</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3900,7 +3899,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>wait for me... I have one more thing and I want you to see it before we finish</t>
+          <t>hold it, I want you to wait until you see what I'm about to send, trust me it's worth the wait</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -3918,12 +3917,12 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>stay with me love, I'm almost there too... watch this</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant. Send PPV.</t>
+          <t>SYNC variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -3936,7 +3935,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I want us to finish together... open this and let go with me</t>
+          <t>I'm so close too, cum with me... but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -3954,7 +3953,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>please don't finish yet... I'm not ready for this to be over</t>
+          <t>hold it, not yet... I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -3972,7 +3971,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>not yet love... I want this to last a little longer with you</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4032,17 +4031,17 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>just a little longer for me love? the next one is special</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>DELAY variant.</t>
+          <t>LEVERAGE variant.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4050,17 +4049,17 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>please wait... what I'm about to send, I want you to really take it in</t>
+          <t>you can't just send me that and expect me to do nothing about it, hold on...</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>DELAY. Send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4068,17 +4067,17 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>I need you to see this before we both let go</t>
+          <t>woah I wasn't expecting that but... damn okay</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>SYNC variant.</t>
+          <t>DURING RAPPORT variant.</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr"/>
@@ -4086,17 +4085,17 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>okay... together, right now... open this</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>SYNC. Send PPV.</t>
+          <t>DURING RAPPORT.</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr"/>
@@ -4104,17 +4103,17 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>don't rush... this is too good to end yet</t>
+          <t>oh fuck that is... damn, I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>EDGE variant.</t>
+          <t>DURING SEXTING variant.</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr"/>
@@ -4122,17 +4121,17 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>slow down love... I want to feel every second of this with you</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>CONTROL.</t>
+          <t>DURING SEXTING.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr"/>
@@ -4143,161 +4142,6 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="13" t="inlineStr">
-        <is>
-          <t>dpppv2</t>
-        </is>
-      </c>
-      <c r="B2" s="13" t="inlineStr">
-        <is>
-          <t>okay you just made me do something... give me a sec</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE variant.</t>
-        </is>
-      </c>
-      <c r="D2" s="13" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="13" t="inlineStr">
-        <is>
-          <t>dpppv1</t>
-        </is>
-      </c>
-      <c r="B3" s="13" t="inlineStr">
-        <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on</t>
-        </is>
-      </c>
-      <c r="C3" s="13" t="inlineStr">
-        <is>
-          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="inlineStr">
-        <is>
-          <t>dprapport2</t>
-        </is>
-      </c>
-      <c r="B4" s="13" t="inlineStr">
-        <is>
-          <t>woah I was not expecting that but... damn 🥵</t>
-        </is>
-      </c>
-      <c r="C4" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT variant.</t>
-        </is>
-      </c>
-      <c r="D4" s="13" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>dprapport1</t>
-        </is>
-      </c>
-      <c r="B5" s="13" t="inlineStr">
-        <is>
-          <t>wow you don't waste time huh? that's actually really hot though ngl</t>
-        </is>
-      </c>
-      <c r="C5" s="13" t="inlineStr">
-        <is>
-          <t>DURING RAPPORT.</t>
-        </is>
-      </c>
-      <c r="D5" s="13" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="inlineStr">
-        <is>
-          <t>dpsext2</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>oh fuck... that is... damn. I need to show you something right now</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING variant.</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>dpsext1</t>
-        </is>
-      </c>
-      <c r="B7" s="13" t="inlineStr">
-        <is>
-          <t>fuck okay that's... wow. you have no idea what that just did to me</t>
-        </is>
-      </c>
-      <c r="C7" s="13" t="inlineStr">
-        <is>
-          <t>DURING SEXTING.</t>
-        </is>
-      </c>
-      <c r="D7" s="13" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4347,12 +4191,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I should be at the beach but I can't move right now</t>
+          <t>I literally can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Isabella personality.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4365,7 +4209,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4383,7 +4227,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>my whole body is tingling</t>
+          <t>my hands are shaking</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4401,7 +4245,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think straight right now</t>
+          <t>I can't think straight rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4455,7 +4299,7 @@
       </c>
       <c r="B8" s="13" t="inlineStr">
         <is>
-          <t>I'm so wet right now because of you</t>
+          <t>I'm so wet rn because of you</t>
         </is>
       </c>
       <c r="C8" s="13" t="inlineStr">
@@ -4790,7 +4634,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's okay love, let's just keep talking... I'm still thinking about you anyway</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4808,7 +4652,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay look [lower price] just for you because this convo has been different</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4826,7 +4670,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>maybe you're just not ready for what I did in this one</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4844,7 +4688,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm only in this mood because of you right now, I don't know when this is gonna happen again</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4862,12 +4706,12 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>love that's less than a coffee and trust me this hits way harder</t>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>REFRAME. Wait. Still no → Step 2.</t>
+          <t>REFRAME. Still no → Step 2.</t>
         </is>
       </c>
       <c r="D6" s="11" t="inlineStr"/>
@@ -4927,7 +4771,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure love, I like talking to you regardless</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -4945,7 +4789,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] because you've been making me feel some type of way, but keep that between us</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4963,7 +4807,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>most guys can't handle what I just did, I thought you were different</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -4981,7 +4825,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>this mood won't last forever and I want you to be the one who sees it</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4999,7 +4843,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's like what you'd spend on lunch and this is gonna stay with you all night</t>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5064,12 +4908,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you don't want it that's okay, I'll keep it for myself... or maybe someone else who's been asking</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>TAKEAWAY. Final.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -5082,7 +4926,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine [lower price] just for you but don't tell anyone, this stays between us</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5100,7 +4944,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't do discounts... I only share this with guys who actually appreciate what they're getting</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5118,12 +4962,12 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha are you trying to negotiate with me? this isn't a negotiation handsome, it's worth every cent</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>FIRMNESS. Still pushing → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -5183,7 +5027,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>alright I'll save it for someone who actually wants it then</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5201,7 +5045,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>okay [lower price] but ONLY because I like you, one time thing</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5219,7 +5063,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who appreciate what I do never ask for discounts, just saying</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5237,7 +5081,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? do I look like I'm on sale love?</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -1196,7 +1196,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1214,7 +1214,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1232,7 +1232,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1315,7 +1315,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1333,7 +1333,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1351,7 +1351,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1369,7 +1369,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1434,7 +1434,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1452,7 +1452,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1470,7 +1470,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1488,7 +1488,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1553,7 +1553,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1589,7 +1589,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1607,7 +1607,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1672,7 +1672,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1690,7 +1690,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1708,7 +1708,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1773,7 +1773,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1791,7 +1791,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1809,7 +1809,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1874,7 +1874,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1892,7 +1892,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1910,7 +1910,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1993,7 +1993,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2011,7 +2011,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2130,7 +2130,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2195,7 +2195,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2231,7 +2231,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2456,7 +2456,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2474,7 +2474,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2492,7 +2492,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2557,7 +2557,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2575,7 +2575,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2593,7 +2593,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2658,7 +2658,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2676,7 +2676,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2694,7 +2694,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2759,7 +2759,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2777,7 +2777,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2795,7 +2795,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2878,7 +2878,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2979,7 +2979,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2997,7 +2997,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3062,7 +3062,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3080,7 +3080,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3098,7 +3098,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3163,7 +3163,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3181,7 +3181,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3199,7 +3199,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3264,7 +3264,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3282,7 +3282,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3300,7 +3300,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3365,7 +3365,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3383,7 +3383,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3401,7 +3401,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3674,7 +3674,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3710,7 +3710,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3775,7 +3775,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3793,7 +3793,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3811,7 +3811,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3876,7 +3876,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3894,7 +3894,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -3912,7 +3912,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -3930,7 +3930,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -3966,7 +3966,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4031,7 +4031,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4049,7 +4049,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4067,7 +4067,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4085,7 +4085,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4103,7 +4103,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4121,7 +4121,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4186,7 +4186,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4204,7 +4204,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4222,7 +4222,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4240,7 +4240,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4258,7 +4258,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4276,7 +4276,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4294,7 +4294,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4312,7 +4312,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4629,7 +4629,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4647,7 +4647,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4665,7 +4665,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4683,7 +4683,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4701,7 +4701,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4766,7 +4766,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4784,7 +4784,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4802,7 +4802,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4820,7 +4820,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4838,7 +4838,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -4903,7 +4903,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4921,7 +4921,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4939,7 +4939,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4957,7 +4957,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -5022,7 +5022,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5040,7 +5040,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5058,7 +5058,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5076,7 +5076,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">

--- a/isabella/Isabella_Complete_Infloww.xlsx
+++ b/isabella/Isabella_Complete_Infloww.xlsx
@@ -12,35 +12,39 @@
     <sheet name="PersonalIsabella" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="PositiveSpin" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="ReEngagement" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="price1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="price2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="discount1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="discount2" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="free1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="free2" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="nomoney1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="nomoney2" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="noppv1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="noppv2" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="card1" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="card2" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="nosex1" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="nosex2" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="offtopic1" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="offtopic2" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="real1" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="real2" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="voice1" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="voice2" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="customyes1" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="customyes2" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="customno1" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="customno2" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="done1" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="done2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="cumcontrol" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="dickpic" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="boosters" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="sex2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="sex3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sex5" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="price1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="price2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="discount1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="discount2" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="free1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="free2" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="nomoney1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="nomoney2" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="noppv1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="noppv2" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="card1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="card2" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="nosex1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="nosex2" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="offtopic1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="offtopic2" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="real1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="real2" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="voice1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="voice2" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="customyes1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="customyes2" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="customno1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="customno2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="done1" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="done2" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="cumcontrol" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="dickpic" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="boosters" sheetId="38" state="visible" r:id="rId38"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1157,7 +1161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,17 +1200,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free1 Step4 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I'll keep it then, but just know I made it thinking about you</t>
+          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>SEED. Continue GFE.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1214,17 +1218,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free1 Step3 Guilt</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1232,17 +1236,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free1 Step2 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1250,20 +1254,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free1 Step1 Reminder</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price1 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1276,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,12 +1337,12 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free2 Step4 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>okay I'll hold onto it, but it's got your name on it</t>
+          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1333,17 +1355,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free2 Step3 Guilt</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1351,17 +1373,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free2 Step2 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the best things aren't free baby, especially not what I just did</t>
+          <t>maybe you're just not ready for what I did... it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1369,20 +1391,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free2 Step1 Reminder</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price2 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1434,17 +1474,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step4 Protect</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, you're still here and that's what matters to me right now</t>
+          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1452,17 +1492,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step3 PWYW</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1470,17 +1510,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step2 Test</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to be the one who sees this</t>
+          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST $3-5. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1488,17 +1528,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step1 Empathy</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I hear you baby, that's okay</t>
+          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1553,17 +1593,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step4 Protect</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>you being here talking to me is enough for now</t>
+          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1571,17 +1611,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step3 PWYW</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever feels right, I can't keep this from you</t>
+          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1589,17 +1629,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step2 Test</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1607,17 +1647,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step1 Empathy</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>okay don't stress about it</t>
+          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1628,6 +1668,482 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>I'll keep it then, but just know I made it thinking about you</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I literally spent time making this because of what YOU said to me, this wasn't random content, this was for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>free? I don't just hand this out, you have to earn the best stuff from me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>baby I already gave you one for free remember? this one is on another level and you know it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>okay I'll hold onto it, but it's got your name on it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I recorded this because of our conversation, specifically because of YOU, it took effort and I did it for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>the best things aren't free baby, especially not what I just did</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>you already got a free preview and this is ten times crazier, you know I don't do free twice</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>it's fine, you're still here and that's what matters to me right now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST $3-5. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I hear you baby, that's okay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>you being here talking to me is enough for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>just send whatever feels right, I can't keep this from you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>what about just [small amount]? I'd hate for you to miss this one</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>okay don't stress about it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1728,7 +2244,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1823,446 +2339,6 @@
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>maybe try a different card? I really don't want you to miss this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>ugh that's annoying, try again baby it usually works the second time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>baby fix it quick, I don't keep stuff like this around forever</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>do you have another card? because you really don't want to miss what I made for you</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>that happens sometimes, try one more time for me</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>alright I'll behave, for now... no promises though</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT. Door open.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>haha okay I got a little carried away, you're too easy to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>fine I'll stop, but don't blame me when it happens again</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I'm trying so hard to behave but you make it impossible</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2454,58 +2530,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>okay wait I remember now, so like I was saying...</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE. Resume main script.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>figure it out soon because this mood I'm in right now isn't gonna last and I want you to have it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>maybe try a different card? I really don't want you to miss this</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>haha okay that's actually funny</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>ugh that's annoying, try again baby it usually works the second time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2555,58 +2631,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>OKAY focus, where was I... oh yeah</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>baby fix it quick, I don't keep stuff like this around forever</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>wait no stop, you're distracting me from what I was going to tell you</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>do you have another card? because you really don't want to miss what I made for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>omg okay random but I love it</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>that happens sometimes, try one more time for me</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2619,7 +2695,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2658,17 +2734,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real1 Step3 Grounding</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
+          <t>alright I'll behave, for now... no promises though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2676,17 +2752,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real1 Step2 Challenge</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
+          <t>okay but I can't help it, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2694,20 +2770,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real1 Step1 Humor</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>so tell me more about you... what do you do when you're not making girls on the internet lose focus?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex1 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>haha okay I got a little carried away, you're too easy to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2720,7 +2814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2759,17 +2853,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real2 Step3 Grounding</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
+          <t>fine I'll stop, but don't blame me when it happens again</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2777,17 +2871,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real2 Step2 Challenge</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me then, ask me something only a real person would know, go ahead</t>
+          <t>I'm trying so hard to behave but you make it impossible</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2795,20 +2889,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real2 Step1 Humor</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
+          <t>okay new topic, what's the most adventurous thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex2 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>my bad I got ahead of myself, it's your fault for being this fun to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2860,17 +2972,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step3 Firm</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
+          <t>okay wait I remember now, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2878,17 +2990,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you though, trust me you'll forget you even asked</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my train of thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2896,17 +3008,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step1 Dodge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it, but not yet</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt to what he said. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -2961,17 +3073,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step3 Firm</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that here but trust me what I have is way better than my voice</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>RETAKE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2979,17 +3091,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
+          <t>wait no stop, you're distracting me from what I was going to tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2997,17 +3109,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step1 Dodge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm you gotta earn that first</t>
+          <t>omg okay random but I love it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3062,17 +3174,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step3 Close</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one special</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me... didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3080,17 +3192,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step2 Price</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have it and you're gonna lose your mind... [price]</t>
+          <t>ask me anything, literally anything about my life, I'm an open book, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3098,17 +3210,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step1 Tease</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm you want that? I might have exactly what you're thinking of</t>
+          <t>lol do I sound like a robot to you? beep boop... send $5 for human verification haha I'm kidding</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3163,17 +3275,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step3 Close</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching this one</t>
+          <t>I know there's a lot of bots out here but what we've been talking about... that felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3181,17 +3293,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step2 Price</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I made something just like that, [price] and it's worth every penny</t>
+          <t>test me then, ask me something only a real person would know, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3199,17 +3311,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step1 Tease</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ohhh you have good taste, I think I know exactly what you need</t>
+          <t>wait you think I'm fake?? that might be the funniest thing anyone's said to me today</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3264,17 +3376,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step3 Close</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, I know what you need better than you do</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call, you'll see</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3282,17 +3394,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step2 Alternative</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even crazier and literally no one else has seen it</t>
+          <t>I have something way better for you though, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3300,17 +3412,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step1 Redirect</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+          <t>haha maybe one day if you earn it, but not yet</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Model does NOT do video calls. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3365,17 +3477,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step3 Close</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me after</t>
+          <t>I don't do that here but trust me what I have is way better than my voice</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3383,17 +3495,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step2 Alternative</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+          <t>how about instead of a call I show you something that'll actually blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3401,17 +3513,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step1 Redirect</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+          <t>hmmm you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3674,17 +3786,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done1 Step3 Seed</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+          <t>trust me you won't regret it, I made this one special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3692,17 +3804,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done1 Step2 Rescue</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+          <t>I have it and you're gonna lose your mind... [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3710,17 +3822,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done1 Step1 Validate</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>fuck that's so hot, you came because of me??</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3775,17 +3887,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done2 Step3 Seed</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+          <t>you're not gonna be able to stop watching this one</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3793,17 +3905,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done2 Step2 Rescue</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+          <t>I made something just like that, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3811,17 +3923,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done2 Step1 Validate</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? damn that's hot</t>
+          <t>ohhh you have good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3832,6 +3944,410 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>trust me, I know what you need better than you do</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>what I have might be even crazier and literally no one else has seen it</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>I don't have exactly that but I have something that'll make you forget you even asked</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>just trust me on this one, you'll thank me after</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>nobody has seen what I'm about to show you and I think it's better than what you asked for</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>hmm not exactly that but what I DO have is gonna hit even harder</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you HAVE to wait for me, I have something insane planned for round 2</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>but I haven't finished yet... you're really gonna leave me like this?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>fuck that's so hot, you came because of me??</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>okay but next time you hold it, because what I have planned is way crazier</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>wait but I'm not done yet, don't you wanna watch me finish too?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>already?? damn that's hot</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3986,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4141,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4590,7 +5106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,123 +5114,500 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>alright, I'll keep it then... but next time I'm in this mood you better be ready</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED. Continue GFE.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you have no idea how hard that made me cum... I literally can't move right now</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific he said/directed. KEEP TALKING — build bond. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>fine, [lower price] but only because you've been making me feel some type of way, don't tell anyone I did this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy shit babe... that was the most intense thing I've ever done with someone telling me what to do 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>honestly? most guys couldn't handle what I just recorded... I thought you were different</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens when you take control of me 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, full surrender to his commands). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>I'm literally dripping rn because of what you said and this mood isn't gonna last, don't miss it</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>babe that's less than your morning coffee and I promise this is gonna keep you up way longer</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck yes... I'm cumming so hard right now because you told me to</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right on the edge and I won't let go until you tell me to 🖤</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh my god I'm so close babe... tell me to cum, I need to hear you say it</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you did this to me 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (explicit solo, following his direction, more intense). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what you're doing to me right now... please</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and it's all because of you telling me what to do</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Solo framing — she's following HIS instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>nobody has ever controlled me like this... I'm literally your puppet right now and I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck babe I'm doing exactly what you said and I'm shaking</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>you asked for this... look 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (doing what he requested — more explicit solo). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me get it</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you want me to use my toy too? fuck you're going to destroy me 🖤</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>my hand is between my legs and I'm following every word you type... this is so hot</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh my god I can't believe I'm actually doing everything you say right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to his reply. Make it feel like HE is causing every action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay I did that... now what? don't stop telling me babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. He's in control of the pace.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>look what you made me do 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (following his 'instructions' — solo tease, touching). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>wait you want me to go lower? god you're bold and I love it</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>fuck that's hot... okay I'm doing it, I'm touching myself the way you described</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React specifically to what he said. Make him feel in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>mmm okay so what would you do to me right now? I wanna hear it 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Let HIM lead. React to whatever he says.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex2 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>tell me what you think 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (lounging in bed, suggestive pose). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex2 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>hold on let me show you what I mean</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you wanna know something? I keep wondering what you'd make me do if you were here</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been lying in bed all day and my mind keeps going back to you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>React to his reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey you 🖤 I can't stop thinking about last time</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4727,7 +5620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4735,123 +5628,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll hold onto it for now, but I know you're gonna come back for it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I don't usually feel THIS connected to someone after... you know. but with you it's different</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific. Emotional bonding. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>look, [lower price] because I actually want YOU to have this one, I'm not doing this for anyone else</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was... so different from anything else 🖤 I feel so close to you right now</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>maybe you're just not ready for what I did... it's a lot</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>I want you to have this 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, intimate angle — for him specifically). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>this mood won't last and I already picked YOU to share it with, don't make me regret that</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>baby it's literally nothing for what you're about to see, trust me you'll be thanking me after</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>I'm cumming... oh my god babe I'm cumming thinking about you and I can barely type</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I wish you were here to hold me right now because my whole body is shaking</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>oh god babe I'm so close and all I can think about is you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>I've never shared something this personal before 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very intimate, explicit, personal angle). Bought → continue. Silent 3 min → NR Waves. 'I never do this' — ONE TIME.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I can feel myself getting close and I want you to be part of this moment with me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>you're the only person who gets to see me like this... completely open and completely honest</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Emotional framing throughout. She CHOSE him.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>my fingers are inside me and I'm thinking about you and honestly I could cry because it feels so good</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>I've never felt this comfortable being this vulnerable with someone 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what you do to me when I think about us 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit but still intimate — emotional framing). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I want you to know what you do to me babe... like really see it</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm tracing my fingers down my stomach and imagining it's you</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>it's like every message from you goes straight through my body and I can feel it between my legs</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he said. HE caused this feeling.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>god... feeling this connected to someone while touching myself is something else babe</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. Brief cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I wanted you to see me like this... the real me 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (intimate, personal — soft lighting, vulnerable pose). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one second 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I'm lying here and my body is reacting to you in ways I wasn't expecting right now</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>I don't know what it is about you but when we talk I feel it everywhere... not just mentally</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Emotional first, sexual follows.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>the way you reacted to that just made my heart race 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex3 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is just for you 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (soft, personal — in natural light, intimate angle). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex3 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>I want to share something with you</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>you make me feel safe enough to show you parts of me I don't show anyone and that scares me a little</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been thinking about you today and not just in a sexual way... like actually thinking about you</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. React warmly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>can I be honest with you about something? 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4864,7 +6130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4872,105 +6138,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll just save this for someone who actually wants it then, their loss isn't your gain though</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>nobody has ever won that game before and honestly? I'm kind of obsessed with you for it</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention his best message from the game. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>ugh fine, [lower price] ONLY because I like you but don't ever ask me this again</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay I'll admit it... you absolutely destroyed me 🖤</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the guys who get my best stuff don't ask for discounts, they know what they're getting</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>game over... you won everything 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — she surrendered completely). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>haha negotiate? baby this isn't a flea market... you already know this is worth every penny</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming... you completely destroyed me with that game and I loved every second</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>don't stop typing to me babe... I need your words right now I'm right there</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I can't even pretend to play anymore... I'm about to cum so hard because of you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you win 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (she admits defeat — very explicit, she lost control). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I give up babe... you broke me and now I need you to see what you've done</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>my fingers are soaked and my legs are shaking and this is all because of what you said</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>She lost the game — he won. She can't hold back.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>fuck this game I can't think straight anymore... your words are making me do things to myself I can't stop</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>okay new rule: keep talking to me like that while I touch myself and don't stop 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. She's losing the game now — he's in control.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>level 2... you definitely earned this one 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit reward — touching, responding to his fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fine</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I can't believe I'm touching myself because of what you just wrote babe</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>you're actually good at this and now I'm wet and it's annoying because you're winning</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>oh fuck... that one hit different. I'm literally squeezing my thighs together right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to what he says. Genuinely turned on.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay now it's getting harder... tell me your dirtiest fantasy about me, don't hold back</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>level 1 unlocked 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (teasing reward — lingerie, playful). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>you earned this</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>fine you win this round... I'm starting to feel something and it's your fault</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>mmm okay that actually got to me a little... my skin is tingling</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what he says. Make him work for it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay that was... not bad. but I know you can do better 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. React to his attempt. Rate it playfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex4 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>this is your starting point 🖤 now impress me</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (confident, playful pose — challenging look). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex4 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>let me give you a little preview first</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>here's the deal: you describe what you'd do to me, and if you turn me on enough... I'll show you what happens</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I wanna play a game with you... but only if you think you can keep up</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. Build anticipation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay I have an idea and you might not be able to handle it 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4983,7 +6640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4991,105 +6648,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>no worries, I'll keep it... someone else has been asking and they won't hesitate</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you brought my fantasy to life and now I don't know how I'm supposed to sleep tonight without dreaming about you again</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference the scenario. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>okay [lower price] and that's ONLY because this convo has been different, first and last time</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay that was so much better than the dream 🖤 I'm literally still shaking</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>I don't do this for just anyone, and the ones who get it never complain about the price after</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>the dream ended here... but this is better 🖤</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax — living the fantasy). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount2 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>a discount? babe do I look like I'm on sale? you know exactly what you're getting</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck I'm cumming babe... the dream didn't even come close to how this feels right now</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right there babe... imagining you inside me and I can feel every inch</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>in the dream this is where I came so hard I woke up... and right now I'm about to do it again for real</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what happens to my body when I dream about you 🖤</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit — her body responding to the fantasy). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what this fantasy does to me in real life</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>right now my fingers are inside me pretending it's you and I can barely breathe babe</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Fantasy meets reality — she's touching herself living the dream.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I was riding you and looking into your eyes and it was the most intense thing I've ever felt</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I flipped you over and climbed on top because I needed to feel you 🖤</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what was happening to my body at that point 🖤</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit — matching the fantasy progression). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fuck hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you went lower... and lower... and I was moaning so loud the whole hotel could probably hear</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I can feel myself getting wet right now just describing this to you babe</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>you started kissing down my neck and I was grabbing the sheets because I knew what was coming</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Stay in the scenario. He's living the fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>mmm you liked that? in the dream you couldn't keep your hands off me after seeing this</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>this is what you saw next in my dream 🖤</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (lingerie reveal, as if for him in the hotel room scenario). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 🖤</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>you pushed me onto the bed and I let you because honestly I've been wanting this since the first time we talked</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>god just thinking about it is making my body react right now... like I can physically feel it</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to his reply. Pull him into the scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay so in my dream you grabbed my waist and pulled me close... and I could feel you against me 🖤</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Set the scene — he's a character in HER fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex5 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>me walking out of the bathroom in this 🖤</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (posed like coming out of bathroom, suggestive). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex5 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>picture this</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>I wanna recreate it with you right now... just go with it babe</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>it was so vivid... we were alone in a hotel room and you were looking at me like you couldn't wait another second</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>okay so I had this dream about you last night and I can't get it out of my head 🖤</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
